--- a/data/trans_orig/P14A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C095385-E24E-4A8F-BD08-2FE560BB0600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAA9EE1-C140-4F6A-AA03-DE94DB21B12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C23F8688-DF5F-4798-8D89-A75B8783A68C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71F61678-A29B-4A6C-B551-71CF05FD01E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>52,5%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>47,5%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,16 +138,16 @@
     <t>68,22%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>64,67%</t>
+    <t>68,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -156,19 +156,19 @@
     <t>76,15%</t>
   </si>
   <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>7,37%</t>
@@ -177,16 +177,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,33%</t>
+    <t>31,21%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,10 +195,10 @@
     <t>48,41%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -207,19 +207,19 @@
     <t>69,17%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -231,64 +231,64 @@
     <t>30,83%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -318,9 +318,6 @@
     <t>70,48%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
     <t>84,29%</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
   </si>
   <si>
     <t>15,71%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
   </si>
   <si>
     <t>71,38%</t>
@@ -904,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A80A27-1518-40D9-A13D-7C1EC4A99FC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A39B8-E32E-461C-B26A-77B4F626E025}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1655,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798C6E2C-1FBB-47C8-AB7E-6FDE7C14A65D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD8DF6D-8EE8-49F6-A5A6-3B2D8EA1BAB2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1812,10 +1806,10 @@
         <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1824,13 @@
         <v>4380</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1845,13 +1839,13 @@
         <v>4170</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -1860,13 +1854,13 @@
         <v>8550</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1928,13 @@
         <v>14859</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -1949,13 +1943,13 @@
         <v>24486</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -1964,13 +1958,13 @@
         <v>39345</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1979,13 @@
         <v>5958</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -2000,13 +1994,13 @@
         <v>7008</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2015,13 +2009,13 @@
         <v>12965</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,10 +2083,10 @@
         <v>3471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>37</v>
@@ -2104,10 +2098,10 @@
         <v>4016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
@@ -2119,13 +2113,13 @@
         <v>7487</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2134,13 @@
         <v>2212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2155,13 +2149,13 @@
         <v>928</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2170,13 +2164,13 @@
         <v>3140</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2238,13 @@
         <v>22911</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2259,13 +2253,13 @@
         <v>44337</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -2274,13 +2268,13 @@
         <v>67248</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2289,13 @@
         <v>12550</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2310,13 +2304,13 @@
         <v>12106</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -2325,13 +2319,13 @@
         <v>24655</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAA9EE1-C140-4F6A-AA03-DE94DB21B12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC7DBE1-AA22-4F44-A83B-8B9B992514E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71F61678-A29B-4A6C-B551-71CF05FD01E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7913354D-1A48-42A1-AA67-769C8F777172}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>52,5%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>47,5%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,16 +138,16 @@
     <t>68,22%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>68,79%</t>
+    <t>68,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -156,19 +156,19 @@
     <t>76,15%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>7,37%</t>
@@ -177,16 +177,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,21%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,10 +195,7 @@
     <t>48,41%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>10,65%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -207,19 +204,16 @@
     <t>69,17%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>89,35%</t>
   </si>
   <si>
     <t>0%</t>
@@ -231,262 +225,274 @@
     <t>30,83%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>84,29%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>15,71%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>61,07%</t>
   </si>
   <si>
+    <t>14,08%</t>
+  </si>
+  <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>21,84%</t>
+    <t>19,91%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>38,93%</t>
   </si>
   <si>
+    <t>85,92%</t>
+  </si>
+  <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>78,16%</t>
+    <t>80,09%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A39B8-E32E-461C-B26A-77B4F626E025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76BEC33-4938-4BA5-9815-2FD1C4481CD9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1338,7 +1344,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1350,7 +1356,7 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -1362,13 +1368,13 @@
         <v>10340</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1383,13 +1389,13 @@
         <v>4608</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1401,10 +1407,10 @@
         <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1413,13 +1419,13 @@
         <v>4609</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,13 +1493,13 @@
         <v>33956</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -1502,13 +1508,13 @@
         <v>29895</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -1517,13 +1523,13 @@
         <v>63850</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,13 +1544,13 @@
         <v>23014</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1553,13 +1559,13 @@
         <v>7234</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -1568,13 +1574,13 @@
         <v>30249</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,7 +1636,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD8DF6D-8EE8-49F6-A5A6-3B2D8EA1BAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59293D2-3E5D-49DE-993B-6F49BE3D04ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1666,7 +1672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1773,13 +1779,13 @@
         <v>4581</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -1788,13 +1794,13 @@
         <v>15835</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -1803,13 +1809,13 @@
         <v>20416</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1830,13 @@
         <v>4380</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1839,13 +1845,13 @@
         <v>4170</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -1854,13 +1860,13 @@
         <v>8550</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2092,7 @@
         <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>37</v>
@@ -2098,10 +2104,10 @@
         <v>4016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>37</v>
@@ -2113,13 +2119,13 @@
         <v>7487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2140,13 @@
         <v>2212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2149,13 +2155,13 @@
         <v>928</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2164,13 +2170,13 @@
         <v>3140</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>22911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2253,13 +2259,13 @@
         <v>44337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -2268,13 +2274,13 @@
         <v>67248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2295,13 @@
         <v>12550</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2304,13 +2310,13 @@
         <v>12106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -2319,13 +2325,13 @@
         <v>24655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,7 +2387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
